--- a/tp1/tercera_estimacion.xlsx
+++ b/tp1/tercera_estimacion.xlsx
@@ -95,541 +95,541 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>342.5814498694657</v>
+        <v>348.0006030541102</v>
       </c>
       <c r="B3" t="n">
-        <v>1.086196221139398</v>
+        <v>1.1696141885826539</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.004215296494115</v>
+        <v>-1.1359969740581997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>363.7378546985271</v>
+        <v>341.0010794103158</v>
       </c>
       <c r="B4" t="n">
-        <v>0.929693608544781</v>
+        <v>1.1792779303710323</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.1432614680894815</v>
+        <v>-0.908751399215225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>355.3369540539512</v>
+        <v>356.1134695928124</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8105473231579364</v>
+        <v>0.9060629449572167</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8797193177690283</v>
+        <v>-1.101821953794522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>346.50920754257805</v>
+        <v>337.1518879796223</v>
       </c>
       <c r="B6" t="n">
-        <v>0.699579636962377</v>
+        <v>1.1676838498115456</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6943426907267163</v>
+        <v>-0.840284623752473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>336.4909282705051</v>
+        <v>338.7086974450743</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9821069505155365</v>
+        <v>1.0622586304442012</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8098752465351758</v>
+        <v>-0.9271979541921046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>348.8166117825757</v>
+        <v>362.0969462599787</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0676623814229307</v>
+        <v>0.7937362824024362</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.0770167553316583</v>
+        <v>-0.9320633062691439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>352.68665463511354</v>
+        <v>352.6329442507284</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7078002997291967</v>
+        <v>1.0500341471424413</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7075251151417631</v>
+        <v>-1.0369040027417713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>356.1524645420902</v>
+        <v>353.74236778147207</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6799549610327134</v>
+        <v>0.8717941381433966</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.841187933383728</v>
+        <v>-1.0405503513682668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>352.3851042139362</v>
+        <v>342.5814498694657</v>
       </c>
       <c r="B11" t="n">
-        <v>1.2056556477503906</v>
+        <v>1.086196221139398</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.3560843002722283</v>
+        <v>-1.004215296494115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>343.6880086251197</v>
+        <v>363.7378546985271</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0734300544398265</v>
+        <v>0.929693608544781</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.0506718756036886</v>
+        <v>-1.1432614680894815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>348.0006030541102</v>
+        <v>355.3369540539512</v>
       </c>
       <c r="B13" t="n">
-        <v>1.1696141885826539</v>
+        <v>0.8105473231579364</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.1359969740581997</v>
+        <v>-0.8797193177690283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>353.25788119631017</v>
+        <v>346.50920754257805</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9446550527880231</v>
+        <v>0.699579636962377</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.8911125722892436</v>
+        <v>-0.6943426907267163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>338.90560900537673</v>
+        <v>336.4909282705051</v>
       </c>
       <c r="B15" t="n">
-        <v>1.125020742500449</v>
+        <v>0.9821069505155365</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9099984103684736</v>
+        <v>-0.8098752465351758</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>326.8764406958689</v>
+        <v>348.8166117825757</v>
       </c>
       <c r="B16" t="n">
-        <v>1.248931579141409</v>
+        <v>1.0676623814229307</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8546918594851517</v>
+        <v>-1.0770167553316583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>350.901565116033</v>
+        <v>352.68665463511354</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8880786517619175</v>
+        <v>0.7078002997291967</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9710988631857382</v>
+        <v>-0.7075251151417631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>336.8161611129243</v>
+        <v>356.1524645420902</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7951781167310312</v>
+        <v>0.6799549610327134</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5901404419319272</v>
+        <v>-0.841187933383728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>335.3511052819383</v>
+        <v>352.3851042139362</v>
       </c>
       <c r="B19" t="n">
-        <v>1.2621011813765661</v>
+        <v>1.2056556477503906</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9195732758228572</v>
+        <v>-1.3560843002722283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>366.09541009952943</v>
+        <v>343.6880086251197</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9412509545847549</v>
+        <v>1.0734300544398265</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.2821521711835195</v>
+        <v>-1.0506718756036886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>359.6564788818367</v>
+        <v>353.25788119631017</v>
       </c>
       <c r="B21" t="n">
-        <v>1.104757124628322</v>
+        <v>0.9446550527880231</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.1271930132565713</v>
+        <v>-0.8911125722892436</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>338.10690012269004</v>
+        <v>338.90560900537673</v>
       </c>
       <c r="B22" t="n">
-        <v>1.2514309134401205</v>
+        <v>1.125020742500449</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9346326984479726</v>
+        <v>-0.9099984103684736</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>344.87408712460285</v>
+        <v>326.8764406958689</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9587662409202532</v>
+        <v>1.248931579141409</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.9412392999251976</v>
+        <v>-0.8546918594851517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>341.0010794103158</v>
+        <v>350.901565116033</v>
       </c>
       <c r="B24" t="n">
-        <v>1.1792779303710323</v>
+        <v>0.8880786517619175</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.908751399215225</v>
+        <v>-0.9710988631857382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>367.8193376170317</v>
+        <v>336.8161611129243</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7571329293005427</v>
+        <v>0.7951781167310312</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.2502581261386794</v>
+        <v>-0.5901404419319272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>354.534848464026</v>
+        <v>335.3511052819383</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1162644447707273</v>
+        <v>1.2621011813765661</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.191326592259585</v>
+        <v>-0.9195732758228572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>334.9336203609705</v>
+        <v>366.09541009952943</v>
       </c>
       <c r="B27" t="n">
-        <v>0.993382840888841</v>
+        <v>0.9412509545847549</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7643880435512918</v>
+        <v>-1.2821521711835195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>327.0628336912074</v>
+        <v>359.6564788818367</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9853611993417473</v>
+        <v>1.104757124628322</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6023681766245261</v>
+        <v>-1.1271930132565713</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>361.87213569457776</v>
+        <v>338.10690012269004</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8753094133467534</v>
+        <v>1.2514309134401205</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.0274042366453153</v>
+        <v>-0.9346326984479726</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>382.4490936421609</v>
+        <v>344.87408712460285</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9475489971322769</v>
+        <v>0.9587662409202532</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.473103279859016</v>
+        <v>-0.9412392999251976</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>355.79002280519694</v>
+        <v>367.8193376170317</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0492347201922103</v>
+        <v>0.7571329293005427</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.0314430898892009</v>
+        <v>-1.2502581261386794</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>374.51421170274375</v>
+        <v>354.534848464026</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7111625248871934</v>
+        <v>1.1162644447707273</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.3099533538446821</v>
+        <v>-1.191326592259585</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>346.41821377517914</v>
+        <v>334.9336203609705</v>
       </c>
       <c r="B33" t="n">
-        <v>1.1402879925367417</v>
+        <v>0.993382840888841</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.0809151258004839</v>
+        <v>-0.7643880435512918</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>341.8753784762992</v>
+        <v>327.0628336912074</v>
       </c>
       <c r="B34" t="n">
-        <v>1.337327237415981</v>
+        <v>0.9853611993417473</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.206737377136781</v>
+        <v>-0.6023681766245261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>356.1134695928124</v>
+        <v>361.87213569457776</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9060629449572167</v>
+        <v>0.8753094133467534</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.101821953794522</v>
+        <v>-1.0274042366453153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>356.4180311859046</v>
+        <v>382.4490936421609</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7423134937422112</v>
+        <v>0.9475489971322769</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9639700390065635</v>
+        <v>-1.473103279859016</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>351.3519829114724</v>
+        <v>355.79002280519694</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9315832339508437</v>
+        <v>1.0492347201922103</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.892374158295261</v>
+        <v>-1.0314430898892009</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>362.3962219782576</v>
+        <v>374.51421170274375</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9571929111180172</v>
+        <v>0.7111625248871934</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.1921920367028624</v>
+        <v>-1.3099533538446821</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>358.94171579178</v>
+        <v>346.41821377517914</v>
       </c>
       <c r="B39" t="n">
-        <v>1.188035841012626</v>
+        <v>1.1402879925367417</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.3127031248400192</v>
+        <v>-1.0809151258004839</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>338.27671461943356</v>
+        <v>341.8753784762992</v>
       </c>
       <c r="B40" t="n">
-        <v>1.1641225532026676</v>
+        <v>1.337327237415981</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9645385941387673</v>
+        <v>-1.206737377136781</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>328.9711440578648</v>
+        <v>356.4180311859046</v>
       </c>
       <c r="B41" t="n">
-        <v>1.1056629164907212</v>
+        <v>0.7423134937422112</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.8098173149525913</v>
+        <v>-0.9639700390065635</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>345.3799510929049</v>
+        <v>351.3519829114724</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0472722723229098</v>
+        <v>0.9315832339508437</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.9483780073899052</v>
+        <v>-0.892374158295261</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>341.50178757115725</v>
+        <v>362.3962219782576</v>
       </c>
       <c r="B43" t="n">
-        <v>1.120178199743205</v>
+        <v>0.9571929111180172</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.7249628300511656</v>
+        <v>-1.1921920367028624</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>351.7016375533022</v>
+        <v>358.94171579178</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8943975177046334</v>
+        <v>1.188035841012626</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.9201473592549715</v>
+        <v>-1.3127031248400192</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>344.51589131714087</v>
+        <v>338.27671461943356</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9650790471384549</v>
+        <v>1.1641225532026676</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9384106897478117</v>
+        <v>-0.9645385941387673</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>337.1518879796223</v>
+        <v>328.9711440578648</v>
       </c>
       <c r="B46" t="n">
-        <v>1.1676838498115456</v>
+        <v>1.1056629164907212</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.840284623752473</v>
+        <v>-0.8098173149525913</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>363.4518865706989</v>
+        <v>345.3799510929049</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7997257417067809</v>
+        <v>1.0472722723229098</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.0962375307041432</v>
+        <v>-0.9483780073899052</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>338.7086974450743</v>
+        <v>341.50178757115725</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0622586304442012</v>
+        <v>1.120178199743205</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.9271979541921046</v>
+        <v>-0.7249628300511656</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>362.0969462599787</v>
+        <v>351.7016375533022</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7937362824024362</v>
+        <v>0.8943975177046334</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.9320633062691439</v>
+        <v>-0.9201473592549715</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>352.6329442507284</v>
+        <v>344.51589131714087</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0500341471424413</v>
+        <v>0.9650790471384549</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.0369040027417713</v>
+        <v>-0.9384106897478117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>353.74236778147207</v>
+        <v>363.4518865706989</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8717941381433966</v>
+        <v>0.7997257417067809</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.0405503513682668</v>
+        <v>-1.0962375307041432</v>
       </c>
     </row>
   </sheetData>

--- a/tp1/tercera_estimacion.xlsx
+++ b/tp1/tercera_estimacion.xlsx
@@ -84,552 +84,552 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>354.8066923687035</v>
+        <v>349.46829586836225</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9407400291975851</v>
+        <v>0.9703288855936801</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9788421699036997</v>
+        <v>-0.9797427175039001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>348.0006030541102</v>
+        <v>355.26867350781674</v>
       </c>
       <c r="B3" t="n">
-        <v>1.1696141885826539</v>
+        <v>1.0356920359203379</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.1359969740581997</v>
+        <v>-1.0422382482031072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>341.0010794103158</v>
+        <v>364.81360632880165</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1792779303710323</v>
+        <v>0.886195587501846</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.908751399215225</v>
+        <v>-1.102525546796564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>356.1134695928124</v>
+        <v>336.0923025285776</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9060629449572167</v>
+        <v>1.1219619154265323</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.101821953794522</v>
+        <v>-0.9023655792136507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>337.1518879796223</v>
+        <v>353.0957623931573</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1676838498115456</v>
+        <v>1.0473903084237475</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.840284623752473</v>
+        <v>-1.0921507382820521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>338.7086974450743</v>
+        <v>347.70425452094946</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0622586304442012</v>
+        <v>0.779046011731997</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9271979541921046</v>
+        <v>-0.804996199739501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>362.0969462599787</v>
+        <v>379.8052079409878</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7937362824024362</v>
+        <v>0.7016762681413808</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9320633062691439</v>
+        <v>-1.264789233063625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>352.6329442507284</v>
+        <v>361.44259169021694</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0500341471424413</v>
+        <v>0.8783641774035735</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.0369040027417713</v>
+        <v>-1.0816614299809972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>353.74236778147207</v>
+        <v>346.85630286365466</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8717941381433966</v>
+        <v>0.9256261399502125</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.0405503513682668</v>
+        <v>-0.9871272144856588</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>342.5814498694657</v>
+        <v>339.39908595113366</v>
       </c>
       <c r="B11" t="n">
-        <v>1.086196221139398</v>
+        <v>0.9641736251853227</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.004215296494115</v>
+        <v>-0.861056924050909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>363.7378546985271</v>
+        <v>349.4611760784422</v>
       </c>
       <c r="B12" t="n">
-        <v>0.929693608544781</v>
+        <v>1.004488626224144</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.1432614680894815</v>
+        <v>-0.9176523685807214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>355.3369540539512</v>
+        <v>332.5049845275216</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8105473231579364</v>
+        <v>1.113500580078438</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8797193177690283</v>
+        <v>-0.7598845663538311</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>346.50920754257805</v>
+        <v>369.1932244523061</v>
       </c>
       <c r="B14" t="n">
-        <v>0.699579636962377</v>
+        <v>0.6663679371714449</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6943426907267163</v>
+        <v>-1.0545946586781179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>336.4909282705051</v>
+        <v>339.70380017894377</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9821069505155365</v>
+        <v>1.166851312434524</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8098752465351758</v>
+        <v>-0.9381441103267879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>348.8166117825757</v>
+        <v>349.90045636202456</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0676623814229307</v>
+        <v>0.9720347123644691</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.0770167553316583</v>
+        <v>-1.0429422493660254</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>352.68665463511354</v>
+        <v>340.62604571770515</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7078002997291967</v>
+        <v>0.9834710580960611</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7075251151417631</v>
+        <v>-0.8010119955256351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>356.1524645420902</v>
+        <v>322.0170346054832</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6799549610327134</v>
+        <v>1.4557202053343814</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.841187933383728</v>
+        <v>-0.9425764728223761</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>352.3851042139362</v>
+        <v>340.08688845224555</v>
       </c>
       <c r="B19" t="n">
-        <v>1.2056556477503906</v>
+        <v>1.072284842231723</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.3560843002722283</v>
+        <v>-0.8633942508650241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>343.6880086251197</v>
+        <v>327.2282511162636</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0734300544398265</v>
+        <v>1.2393283915745281</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.0506718756036886</v>
+        <v>-0.6919790460026949</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>353.25788119631017</v>
+        <v>364.3536657162726</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9446550527880231</v>
+        <v>0.8423786052169173</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8911125722892436</v>
+        <v>-1.0983339920409605</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>338.90560900537673</v>
+        <v>342.468042196242</v>
       </c>
       <c r="B22" t="n">
-        <v>1.125020742500449</v>
+        <v>1.1793065456100336</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9099984103684736</v>
+        <v>-1.1190438932089033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>326.8764406958689</v>
+        <v>335.0967149658947</v>
       </c>
       <c r="B23" t="n">
-        <v>1.248931579141409</v>
+        <v>0.8593091793628427</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8546918594851517</v>
+        <v>-0.8105394126987004</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>350.901565116033</v>
+        <v>355.14699999311495</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8880786517619175</v>
+        <v>0.9239026558554356</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9710988631857382</v>
+        <v>-1.1503061603341214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>336.8161611129243</v>
+        <v>345.0075832757741</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7951781167310312</v>
+        <v>0.9607028410605132</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5901404419319272</v>
+        <v>-0.871569514534028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>335.3511052819383</v>
+        <v>340.6144351923502</v>
       </c>
       <c r="B26" t="n">
-        <v>1.2621011813765661</v>
+        <v>1.1198636616828979</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9195732758228572</v>
+        <v>-0.8462195974498432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>366.09541009952943</v>
+        <v>335.9001511062851</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9412509545847549</v>
+        <v>1.080756309162901</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.2821521711835195</v>
+        <v>-0.7161581308479826</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>359.6564788818367</v>
+        <v>351.7982056002291</v>
       </c>
       <c r="B28" t="n">
-        <v>1.104757124628322</v>
+        <v>1.0202022577106502</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.1271930132565713</v>
+        <v>-0.9240456373012649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>338.10690012269004</v>
+        <v>349.4624545428592</v>
       </c>
       <c r="B29" t="n">
-        <v>1.2514309134401205</v>
+        <v>0.9700329616851953</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.9346326984479726</v>
+        <v>-1.1403042210223542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>344.87408712460285</v>
+        <v>360.3587072918426</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9587662409202532</v>
+        <v>0.8567552521019224</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.9412392999251976</v>
+        <v>-1.0846685474113151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>367.8193376170317</v>
+        <v>348.01947618698784</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7571329293005427</v>
+        <v>0.768577694891657</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.2502581261386794</v>
+        <v>-0.992605795877557</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>354.534848464026</v>
+        <v>347.862663802525</v>
       </c>
       <c r="B32" t="n">
-        <v>1.1162644447707273</v>
+        <v>0.9412665671584767</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.191326592259585</v>
+        <v>-0.9038411727779017</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>334.9336203609705</v>
+        <v>345.3130812487108</v>
       </c>
       <c r="B33" t="n">
-        <v>0.993382840888841</v>
+        <v>0.8445193534464887</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7643880435512918</v>
+        <v>-0.6585094318424888</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>327.0628336912074</v>
+        <v>349.00038800492047</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9853611993417473</v>
+        <v>0.9448862820408439</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6023681766245261</v>
+        <v>-0.8443265119272441</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>361.87213569457776</v>
+        <v>339.61608580025705</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8753094133467534</v>
+        <v>1.2441677731464307</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.0274042366453153</v>
+        <v>-0.9261257181301047</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>382.4490936421609</v>
+        <v>374.818348956407</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9475489971322769</v>
+        <v>0.8895796635287818</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.473103279859016</v>
+        <v>-1.1755614171275792</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>355.79002280519694</v>
+        <v>362.7421212079232</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0492347201922103</v>
+        <v>0.8755170721429469</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.0314430898892009</v>
+        <v>-0.946085867889396</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>374.51421170274375</v>
+        <v>344.18662295529737</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7111625248871934</v>
+        <v>1.2339789766123992</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.3099533538446821</v>
+        <v>-1.0683721601456604</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>346.41821377517914</v>
+        <v>355.6445571975587</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1402879925367417</v>
+        <v>0.7548667501783878</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.0809151258004839</v>
+        <v>-0.9423755908733323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>341.8753784762992</v>
+        <v>332.0142642878737</v>
       </c>
       <c r="B40" t="n">
-        <v>1.337327237415981</v>
+        <v>1.1487933238379722</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.206737377136781</v>
+        <v>-0.8599360297777824</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>356.4180311859046</v>
+        <v>372.07382948042493</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7423134937422112</v>
+        <v>0.7126316801831322</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.9639700390065635</v>
+        <v>-1.2143689857850954</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>351.3519829114724</v>
+        <v>358.9201124665608</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9315832339508437</v>
+        <v>1.0500057965822802</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.892374158295261</v>
+        <v>-1.2495088581836515</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>362.3962219782576</v>
+        <v>350.8887166063648</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9571929111180172</v>
+        <v>0.7892375512286196</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.1921920367028624</v>
+        <v>-0.94984517447213</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>358.94171579178</v>
+        <v>340.5310733598086</v>
       </c>
       <c r="B44" t="n">
-        <v>1.188035841012626</v>
+        <v>0.9990251176926074</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.3127031248400192</v>
+        <v>-0.8259807334069081</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>338.27671461943356</v>
+        <v>345.2863191470257</v>
       </c>
       <c r="B45" t="n">
-        <v>1.1641225532026676</v>
+        <v>0.9684467866529315</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.9645385941387673</v>
+        <v>-0.8864026387546545</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>328.9711440578648</v>
+        <v>337.0583044987576</v>
       </c>
       <c r="B46" t="n">
-        <v>1.1056629164907212</v>
+        <v>0.9516234797608378</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.8098173149525913</v>
+        <v>-0.8565075668608849</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>345.3799510929049</v>
+        <v>359.6306648658198</v>
       </c>
       <c r="B47" t="n">
-        <v>1.0472722723229098</v>
+        <v>0.9715653959283321</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9483780073899052</v>
+        <v>-1.1574398306303986</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>341.50178757115725</v>
+        <v>367.6249325946656</v>
       </c>
       <c r="B48" t="n">
-        <v>1.120178199743205</v>
+        <v>0.8207103540867329</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.7249628300511656</v>
+        <v>-1.0382021911367594</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>351.7016375533022</v>
+        <v>350.5096820946877</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8943975177046334</v>
+        <v>1.1391644845679647</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.9201473592549715</v>
+        <v>-1.1236465700333156</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>344.51589131714087</v>
+        <v>347.13061576404596</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9650790471384549</v>
+        <v>1.1879318214853998</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.9384106897478117</v>
+        <v>-1.0625580211109227</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>363.4518865706989</v>
+        <v>339.0306565113941</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7997257417067809</v>
+        <v>0.998751633674858</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.0962375307041432</v>
+        <v>-0.7738368464669888</v>
       </c>
     </row>
   </sheetData>
